--- a/Music and Memory - Lucy/Music Player/StimulusQuestions-MusicPlayer.-FINALxlsx.xlsx
+++ b/Music and Memory - Lucy/Music Player/StimulusQuestions-MusicPlayer.-FINALxlsx.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asternin/Documents/PhDProject.git/Music and Memory - Lucy/Music Player/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="0" windowWidth="31480" windowHeight="21100" tabRatio="500"/>
+    <workbookView xWindow="39340" yWindow="780" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="134">
   <si>
     <t>20th Century</t>
   </si>
@@ -225,9 +233,6 @@
     <t>instrumental</t>
   </si>
   <si>
-    <t>Tonopath</t>
-  </si>
-  <si>
     <t>Do you hear a drum throughout this piece?</t>
   </si>
   <si>
@@ -418,6 +423,12 @@
   </si>
   <si>
     <t>Correct Answer</t>
+  </si>
+  <si>
+    <t>Song ID</t>
+  </si>
+  <si>
+    <t>Tonopah</t>
   </si>
 </sst>
 </file>
@@ -543,13 +554,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="27"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -587,6 +599,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -912,24 +929,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="75.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="43.33203125" customWidth="1"/>
-    <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="2" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="75.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="43.33203125" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -937,749 +954,795 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="C4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="C7" s="5" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="C8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="C9" t="s">
-        <v>113</v>
-      </c>
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="C12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
         <v>85</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
         <v>86</v>
       </c>
-      <c r="E12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="C13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>4</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="C16" t="s">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>17</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="C17" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
-        <v>111</v>
-      </c>
       <c r="E17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>110</v>
+      </c>
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>24</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="C20" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
         <v>88</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D22" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="C22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F22" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
         <v>3</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>4</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="C25" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>38</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="C26" s="2" t="s">
-        <v>92</v>
-      </c>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D26" s="2" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="C27" t="s">
+      <c r="F26" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
         <v>93</v>
       </c>
-      <c r="D27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
         <v>40</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>41</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="C30" s="2" t="s">
-        <v>92</v>
-      </c>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D30" s="2" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="C31" t="s">
+      <c r="F30" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" t="s">
         <v>89</v>
       </c>
-      <c r="D31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="C32" t="s">
+      <c r="F31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
         <v>3</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>4</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>22</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
         <v>43</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>44</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="C35" s="5" t="s">
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="C36" t="s">
-        <v>95</v>
-      </c>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="C37" t="s">
+      <c r="F36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" t="s">
         <v>96</v>
       </c>
-      <c r="D37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="F37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>25</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39">
+        <v>132</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" t="s">
         <v>98</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D40" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E39" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="C40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E40" s="5" t="s">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>103</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>104</v>
       </c>
-      <c r="E41" t="s">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>106</v>
       </c>
-      <c r="D42" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="F42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>27</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
         <v>50</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>51</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="C45" t="s">
-        <v>108</v>
-      </c>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="E45" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="C46" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="F45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" t="s">
         <v>123</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>124</v>
       </c>
-      <c r="E47" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>28</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49">
+        <v>72</v>
+      </c>
+      <c r="D49" t="s">
         <v>53</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>54</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="C50" t="s">
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
         <v>56</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>57</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="C51" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
         <v>59</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>28</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>29</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53">
+        <v>82</v>
+      </c>
+      <c r="D53" t="s">
         <v>61</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>62</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="C54" t="s">
-        <v>110</v>
-      </c>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" t="s">
+        <v>103</v>
+      </c>
+      <c r="F54" t="s">
         <v>104</v>
       </c>
-      <c r="E54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="C55" t="s">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" t="s">
         <v>128</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
         <v>129</v>
       </c>
-      <c r="E55" t="s">
-        <v>130</v>
-      </c>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G55" s="3"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>64</v>
       </c>
       <c r="B57" t="s">
         <v>67</v>
       </c>
-      <c r="C57" t="s">
-        <v>69</v>
+      <c r="C57">
+        <v>32</v>
       </c>
       <c r="D57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" t="s">
         <v>4</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="C58" t="s">
-        <v>71</v>
-      </c>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
         <v>70</v>
       </c>
       <c r="E58" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="C59" t="s">
-        <v>72</v>
-      </c>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" t="s">
         <v>4</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>65</v>
       </c>
       <c r="B61" t="s">
         <v>67</v>
       </c>
-      <c r="C61" t="s">
-        <v>69</v>
+      <c r="C61">
+        <v>42</v>
       </c>
       <c r="D61" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" t="s">
         <v>4</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="C62" t="s">
-        <v>73</v>
-      </c>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" t="s">
         <v>5</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="C63" s="5" t="s">
-        <v>112</v>
-      </c>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D63" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="C64" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
         <v>3</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>4</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
-      <c r="C66" t="s">
-        <v>74</v>
+      <c r="C66" s="6">
+        <v>152</v>
       </c>
       <c r="D66" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" t="s">
         <v>4</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="C67" t="s">
-        <v>71</v>
-      </c>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" t="s">
         <v>5</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="C68" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" t="s">
         <v>80</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
         <v>81</v>
       </c>
-      <c r="E68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="B70" t="s">
         <v>67</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="6">
+        <v>142</v>
+      </c>
+      <c r="D70" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" t="s">
         <v>75</v>
       </c>
-      <c r="D70" t="s">
+      <c r="F71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" t="s">
         <v>4</v>
       </c>
-      <c r="E70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="C71" t="s">
-        <v>78</v>
-      </c>
-      <c r="D71" t="s">
-        <v>76</v>
-      </c>
-      <c r="E71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="C72" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>